--- a/pandapower/test/shortcircuit/SCE_Tests/sc_result_comparison/test_case_3_five_bus_meshed_grid_ynyn_pf_sc_results_1_branch.xlsx
+++ b/pandapower/test/shortcircuit/SCE_Tests/sc_result_comparison/test_case_3_five_bus_meshed_grid_ynyn_pf_sc_results_1_branch.xlsx
@@ -673,13 +673,13 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>6.298389401295451E-19</v>
+        <v>6.298060557580366E-19</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>-4.930090944977055E-19</v>
+        <v>-4.929040403384894E-19</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -7631,13 +7631,13 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>6.298389401295451E-19</v>
+        <v>6.298060557580366E-19</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>-4.930090944977055E-19</v>
+        <v>-4.929040403384894E-19</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -14589,13 +14589,13 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>-6.067620617034689E-09</v>
+        <v>-6.067619535262205E-09</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>5.526513807742921E-09</v>
+        <v>5.526519910996577E-09</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -14607,13 +14607,13 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.8723446855792781</v>
+        <v>0.8723446855792785</v>
       </c>
       <c r="O2">
-        <v>0.8723446855789759</v>
+        <v>0.8723446855789763</v>
       </c>
       <c r="P2">
-        <v>-10.05101633965328</v>
+        <v>-10.05101633965327</v>
       </c>
       <c r="Q2">
         <v>-10.05101633843851</v>
@@ -14660,10 +14660,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.8723446855788752</v>
+        <v>0.8723446855788755</v>
       </c>
       <c r="O3">
-        <v>0.8723446855789759</v>
+        <v>0.8723446855789763</v>
       </c>
       <c r="P3">
         <v>-10.05101633803358</v>
@@ -14713,10 +14713,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8723446855788751</v>
+        <v>0.8723446855788755</v>
       </c>
       <c r="O4">
-        <v>0.8723446855789759</v>
+        <v>0.8723446855789763</v>
       </c>
       <c r="P4">
         <v>-10.05101633803358</v>
@@ -14766,10 +14766,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.8723446855788752</v>
+        <v>0.8723446855788755</v>
       </c>
       <c r="O5">
-        <v>0.8723446855788751</v>
+        <v>0.8723446855788755</v>
       </c>
       <c r="P5">
         <v>-10.05101633803358</v>
@@ -16871,13 +16871,13 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>-6.067620617034689E-09</v>
+        <v>-6.067619535262205E-09</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>5.526513807742921E-09</v>
+        <v>5.526519910996577E-09</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -16889,13 +16889,13 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.8723446855792781</v>
+        <v>0.8723446855792785</v>
       </c>
       <c r="O2">
-        <v>0.8723446855789759</v>
+        <v>0.8723446855789763</v>
       </c>
       <c r="P2">
-        <v>-10.05101633965328</v>
+        <v>-10.05101633965327</v>
       </c>
       <c r="Q2">
         <v>-10.05101633843851</v>
@@ -16942,10 +16942,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.8723446855788752</v>
+        <v>0.8723446855788755</v>
       </c>
       <c r="O3">
-        <v>0.8723446855789759</v>
+        <v>0.8723446855789763</v>
       </c>
       <c r="P3">
         <v>-10.05101633803358</v>
@@ -16995,10 +16995,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8723446855788751</v>
+        <v>0.8723446855788755</v>
       </c>
       <c r="O4">
-        <v>0.8723446855789759</v>
+        <v>0.8723446855789763</v>
       </c>
       <c r="P4">
         <v>-10.05101633803358</v>
@@ -17048,10 +17048,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.8723446855788752</v>
+        <v>0.8723446855788755</v>
       </c>
       <c r="O5">
-        <v>0.8723446855788751</v>
+        <v>0.8723446855788755</v>
       </c>
       <c r="P5">
         <v>-10.05101633803358</v>
@@ -17149,13 +17149,13 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>7.281265323979395E-20</v>
+        <v>7.280536769941471E-20</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>2.67007860883116E-19</v>
+        <v>2.670356277183693E-19</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -17427,13 +17427,13 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>7.281265323979395E-20</v>
+        <v>7.280536769941471E-20</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>2.67007860883116E-19</v>
+        <v>2.670356277183693E-19</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -17705,13 +17705,13 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>-5.146525741355548E-09</v>
+        <v>-5.14643999545456E-09</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>4.677507201864161E-09</v>
+        <v>4.677480117554428E-09</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -17723,16 +17723,16 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.784852101410044</v>
+        <v>0.7848521014100442</v>
       </c>
       <c r="O2">
         <v>0.7848521014176206</v>
       </c>
       <c r="P2">
-        <v>-10.40459667877249</v>
+        <v>-10.40459667877252</v>
       </c>
       <c r="Q2">
-        <v>-10.40459667698047</v>
+        <v>-10.40459667698052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -17776,16 +17776,16 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.7848521014201461</v>
+        <v>0.7848521014201459</v>
       </c>
       <c r="O3">
         <v>0.7848521014176206</v>
       </c>
       <c r="P3">
-        <v>-10.40459667638313</v>
+        <v>-10.40459667638318</v>
       </c>
       <c r="Q3">
-        <v>-10.40459667698047</v>
+        <v>-10.40459667698052</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -17829,16 +17829,16 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.7848521014201461</v>
+        <v>0.7848521014201459</v>
       </c>
       <c r="O4">
         <v>0.7848521014176206</v>
       </c>
       <c r="P4">
-        <v>-10.40459667638313</v>
+        <v>-10.40459667638319</v>
       </c>
       <c r="Q4">
-        <v>-10.40459667698047</v>
+        <v>-10.40459667698052</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -17882,16 +17882,16 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.7848521014201461</v>
+        <v>0.7848521014201459</v>
       </c>
       <c r="O5">
-        <v>0.7848521014201461</v>
+        <v>0.7848521014201459</v>
       </c>
       <c r="P5">
-        <v>-10.40459667638313</v>
+        <v>-10.40459667638318</v>
       </c>
       <c r="Q5">
-        <v>-10.40459667638313</v>
+        <v>-10.40459667638319</v>
       </c>
     </row>
   </sheetData>
@@ -17983,13 +17983,13 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>-5.146525741355548E-09</v>
+        <v>-5.14643999545456E-09</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>4.677507201864161E-09</v>
+        <v>4.677480117554428E-09</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -18001,16 +18001,16 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.784852101410044</v>
+        <v>0.7848521014100442</v>
       </c>
       <c r="O2">
         <v>0.7848521014176206</v>
       </c>
       <c r="P2">
-        <v>-10.40459667877249</v>
+        <v>-10.40459667877252</v>
       </c>
       <c r="Q2">
-        <v>-10.40459667698047</v>
+        <v>-10.40459667698052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -18054,16 +18054,16 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.7848521014201461</v>
+        <v>0.7848521014201459</v>
       </c>
       <c r="O3">
         <v>0.7848521014176206</v>
       </c>
       <c r="P3">
-        <v>-10.40459667638313</v>
+        <v>-10.40459667638318</v>
       </c>
       <c r="Q3">
-        <v>-10.40459667698047</v>
+        <v>-10.40459667698052</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -18107,16 +18107,16 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.7848521014201461</v>
+        <v>0.7848521014201459</v>
       </c>
       <c r="O4">
         <v>0.7848521014176206</v>
       </c>
       <c r="P4">
-        <v>-10.40459667638313</v>
+        <v>-10.40459667638319</v>
       </c>
       <c r="Q4">
-        <v>-10.40459667698047</v>
+        <v>-10.40459667698052</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -18160,16 +18160,16 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.7848521014201461</v>
+        <v>0.7848521014201459</v>
       </c>
       <c r="O5">
-        <v>0.7848521014201461</v>
+        <v>0.7848521014201459</v>
       </c>
       <c r="P5">
-        <v>-10.40459667638313</v>
+        <v>-10.40459667638318</v>
       </c>
       <c r="Q5">
-        <v>-10.40459667638313</v>
+        <v>-10.40459667638319</v>
       </c>
     </row>
   </sheetData>
